--- a/medicine/Psychotrope/Matcha/Matcha.xlsx
+++ b/medicine/Psychotrope/Matcha/Matcha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le matcha (抹茶?, litt. « thé moulu », prononcé : /mat.tɕa/ ; Coréen : 말차 /malcha/), ou maccha[note 1], est une poudre très fine de thé vert moulu (chinois : 粉茶 ; pinyin : fěnchá, qui donne aussi en japonais kocha ou konacha (粉茶?)), qui a été broyée entre deux meules en pierre. Il est utilisé pour la cérémonie du thé japonaise (chanoyu (茶の湯?)) et comme colorant ou arôme naturel avec des aliments tels que le mochi, les soba, la crème glacée au thé vert et une variété de wagashi (和菓子?, des pâtisseries japonaises). La région la plus réputée pour son matcha est Nishio, dans la préfecture d'Aichi ; le matcha de Nishio est appelé Nishiocha.
@@ -512,7 +524,9 @@
           <t>Qualités de matcha</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le matcha est généralement assez cher comparé à d'autres formes de thé, bien que son prix dépende de sa qualité. Celle-ci est évaluée selon un système de grade. Plus le grade est élevé plus le prix du matcha est élevé.
 Les grades le plus couramment usités, par exemple, par Hitomi matcha[réf. nécessaire] sont :
@@ -546,9 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son origine provient d'une tradition originaire de Chine sous la dynastie Sui (581–618) où il est alors appelé mocha (chinois : 末茶 ; pinyin : mòchá ; litt. « thé en poudre »). Cette tradition y arrive à son apogée sous les dynasties Tang (618–690 et 705–907) et song (960-1279). La préparation et la consommation de ce thé devint un rituel sous l'influence de la pratique du bouddhisme Chan, dans lequel il était bu dans un bol commun en guise de sacrement[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son origine provient d'une tradition originaire de Chine sous la dynastie Sui (581–618) où il est alors appelé mocha (chinois : 末茶 ; pinyin : mòchá ; litt. « thé en poudre »). Cette tradition y arrive à son apogée sous les dynasties Tang (618–690 et 705–907) et song (960-1279). La préparation et la consommation de ce thé devint un rituel sous l'influence de la pratique du bouddhisme Chan, dans lequel il était bu dans un bol commun en guise de sacrement,.
 Le bouddhisme Chan (aussi connu sous le nom japonais de zen), et avec lui le thé en poudre, fut importé au Japon en 1191 par le moine Eisai. Le thé en poudre fut par la suite oublié en Chine, tandis qu'il devint populaire au Japon. Au XVIe siècle, le maître de thé Sen no Rikyū formula les principes du chanoyu, la cérémonie du thé japonaise, et indiqua que le matcha était le thé à utiliser dans ce contexte.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La production du matcha commence quelques semaines avant la récolte, lorsque les buissons de thé sont couverts pour les protéger de la lumière directe du soleil. Cela ralentit la croissance de la plante, rend ses feuilles plus sombres et entraîne la production d'acides aminés qui adouciront le goût du thé, notamment l’acide aminé L-theanine responsable du goût umami du thé matcha.
 Après la récolte, si les feuilles sont enroulées avant le séchage, ce qui est le cas d'ordinaire, le thé résultant sera du gyokuro. Si à l'inverse les feuilles sont dépliées pour le séchage, elles vont quelque peu s'émietter et produire du tencha (碾茶?). Le tencha peut ensuite être moulu en une poudre très fine, d'un vert clair ; il sera alors appelé matcha.
@@ -612,7 +630,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matcha doit être tamisé avant d'être mélangé à l'eau. On utilise à cette fin des tamis spéciaux, généralement en acier inoxydable, au maillage serré, et incluant un réceptacle provisoire. Pour faire passer le thé à travers le tamis, on peut utiliser une spatule de bois spéciale ou placer une pierre polie sur le tamis et le secouer doucement.
 Si le matcha doit être servi lors d'une cérémonie du thé, il doit être placé dans une petite boîte spéciale. Dans le cas contraire, on peut verser le contenu du tamis directement dans le bol à thé.
@@ -649,12 +669,14 @@
           <t>Autres utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matcha est maintenant un ingrédient courant dans les sucreries japonaises. Il est utilisé dans le kasutera, les manjū et le monaka, les mochi, comme garniture pour le kakigōri, comme boisson mélangé avec du lait et du sucre, ou en matcha-shio (une préparation qui peut accompagner le tempura).
 Il est aussi utilisé comme un arôme pour parfumer des chocolats, des bonbons, des gâteaux (cookies, puddings…) ou des crèmes glacées.
 L'utilisation du matcha dans des boissons modernes s'est répandue dans les cafés aux États-Unis où, comme au Japon, il peut être mélangé au café au lait, au milkshake, dans des boissons glacées, et dans des boissons sucrées ou alcoolisées. Le thé matcha connaît également un grand succès dans les bubble teas, boisson aux perles d'origine taïwanaise.
-Les vertus alimentaires du thé vert en général[3] et du matcha en particulier[4] ont suscité un vif intérêt aux États-Unis. On peut maintenant trouver du matcha dans de nombreux aliments diététiques allant des mélanges à base de céréales aux barres énergétiques.
+Les vertus alimentaires du thé vert en général et du matcha en particulier ont suscité un vif intérêt aux États-Unis. On peut maintenant trouver du matcha dans de nombreux aliments diététiques allant des mélanges à base de céréales aux barres énergétiques.
 La théanine est l’acide aminé non protéique le plus abondant dans le thé vert et donne au matcha son goût d’umami. La préparation du matcha exige que les feuilles de thé soient protégées du soleil, ce qui réduit la biosynthèse de la théanine en catéchine et augmente la concentration de théanine par rapport au brassage traditionnel du thé vert.
 </t>
         </is>
